--- a/full_data/test_data.xlsx
+++ b/full_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Desktop/BassConnections/full_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{430043EF-FE7D-A649-BF39-3143B9A5A9D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E4C511-3703-1C4D-ADBB-2C3B7731E385}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16180" xr2:uid="{ECB97334-F3C2-4445-8044-52157DCFCDD2}"/>
+    <workbookView xWindow="10020" yWindow="960" windowWidth="18400" windowHeight="16180" xr2:uid="{ECB97334-F3C2-4445-8044-52157DCFCDD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>full_name_date</t>
   </si>
@@ -78,70 +78,166 @@
     <t>child_num</t>
   </si>
   <si>
-    <t>Adriaen  van Nieulandt I, alias:  Nieuwelandt (1587 - 1658)</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/5634</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
-    <t>Jan Baptist  van Fornenbergh jr. (1624 - 1696)</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/9459</t>
-  </si>
-  <si>
-    <t>Hessel Gerritsz. (1581 - 1632)</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/3160</t>
-  </si>
-  <si>
-    <t>Johannes   Bilsteyn (1637 - 1706)</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/17518</t>
-  </si>
-  <si>
-    <t>Damiaen   Walles, alias:  Walies; Wallens; Wallus (1644 - 1691)</t>
-  </si>
-  <si>
-    <t>1530 - 1583</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/19716</t>
-  </si>
-  <si>
-    <t>Gerard  de Jode (1516 - 1591)</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/4128</t>
-  </si>
-  <si>
-    <t>Aert   Koninck (? - 1639)</t>
-  </si>
-  <si>
-    <t>1553 - 1626</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/9327</t>
-  </si>
-  <si>
-    <t>Jan  van Waesberghe (1556 - 1626)</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/9249</t>
-  </si>
-  <si>
-    <t>Frans   Hals (ca. 1583 - 1666)</t>
-  </si>
-  <si>
-    <t>1583 - 1666</t>
-  </si>
-  <si>
-    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/3474</t>
+    <t>spouse_count</t>
+  </si>
+  <si>
+    <t>string_spouse</t>
+  </si>
+  <si>
+    <t>Johannes Hendriks  Rosekrans (1618 - 1681)</t>
+  </si>
+  <si>
+    <t>1620 - 1667</t>
+  </si>
+  <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/19208</t>
+  </si>
+  <si>
+    <t>c("Geertruyt Gerrits  Hoef (1619 - 1642)", "Eva Jans van der Cley (1624 - 1654)", "Maria Leenders  Dortsman (1634 - 1666)", "Annetje Franse (1632 - 1674)", "Hester  de Mol (1635 - 1674)")</t>
+  </si>
+  <si>
+    <t>Elisabet Abrams  Wiaerts, alias:  Abrahams (1640 - 1709)</t>
+  </si>
+  <si>
+    <t>1592 - 1635</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/17254</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>c("Gilles Pieters (1637 - ?)", "Israel  de Paul, alias:  de Pul | de Poul (1632 - 1680)", "Abraham Olofs (1659 - 1686)", "Andries Pieters (1647 - 1693)", "Johannes   Groenewout, alias:  Jan Groenewoud (1663 - ?)")</t>
+  </si>
+  <si>
+    <t>Gabriel  à Roy, alias:  de Roy (1632 - 1707)</t>
+  </si>
+  <si>
+    <t>1601 - 1672</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/38952</t>
+  </si>
+  <si>
+    <t>c("Rachel   Seel (1628 - 1655)", "Sara   Wasteliers (1631 - 1675)", "Elisabeth Adams (? - 1681)", "Catrina Bastiaans van der Steen (1647 - 1689)", "Catrina   Burgers (1649 - 1711)")</t>
+  </si>
+  <si>
+    <t>Adam  der Kinderen (1640 - 1720)</t>
+  </si>
+  <si>
+    <t>1644 - 1727</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/16316</t>
+  </si>
+  <si>
+    <t>c("Margriet Andries (1635 - 1664)", "Gerbrech   Ernst (1639 - 1666)", "Pietertje   Raarda (1641 - 1678)", "Aeltie   Yvey (1656 - 1721)")</t>
+  </si>
+  <si>
+    <t>Johannes  de Renialme (ca. 1594 - 1657)</t>
+  </si>
+  <si>
+    <t>? - 1666</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/28053</t>
+  </si>
+  <si>
+    <t>c("Maria  de Coquel, alias:  Maria de Kokel (? - 1629)", "Margarieta    Bartolotti van den Heuvel (1604 - 1630)", "Maria   Weinrich (? - 1640)", "Catharina  d' Overdage (? - 1676)")</t>
+  </si>
+  <si>
+    <t>Jan Teunisz, alias:  Joannes Antonius; Barbarossa (1569 - 1637)</t>
+  </si>
+  <si>
+    <t>1618 - 1653</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>1653</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/47016</t>
+  </si>
+  <si>
+    <t>c("Meynsge  Dirksdr. (? - ?)", "Metgen Claasdr. (? - ?)", "Tryntjen  Ariaens (? - 1612)", "Swaantje Hillebrants (1580 - ?)")</t>
+  </si>
+  <si>
+    <t>Magdalena   Hoffmann (1633 - 1688)</t>
+  </si>
+  <si>
+    <t>1676 - 1727</t>
+  </si>
+  <si>
+    <t>1676</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/15012</t>
+  </si>
+  <si>
+    <t>c("Balthazar   Alberdael (1615 - ?)", "Johannes  van Bevoort (? - 1664)", "Jan Jansen  Stuewarts (? - ?)", "Engel   Baers (1643 - ?)")</t>
+  </si>
+  <si>
+    <t>Cornelis  (van) Nerven, alias:  Cornelis van Erven (ca. 1604 - 1661)</t>
+  </si>
+  <si>
+    <t>? - 1701</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/5597</t>
+  </si>
+  <si>
+    <t>c("Cornelia Adriaens van Hommel (? - 1634)", "Neeltge Claesdr. van der Ameyde (? - ca. 1640)", "Geertruyt Gijsberts van Buyren (? - 1644)", "Catalina   Pyeck, alias:  Catalijntje Erven (? - 1671)")</t>
+  </si>
+  <si>
+    <t>Hendrik   Leeman (1638 - 1717)</t>
+  </si>
+  <si>
+    <t>? - 1623</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>http://www.vondel.humanities.uva.nl/ecartico/persons/12951</t>
+  </si>
+  <si>
+    <t>c("Catrina   Versteege (1639 - 1670)", "Jannetje Pieters (1645 - 1680)", "Jannetje  van Heukelom (1648 - 1691)", "Margrieta  van Heerenhoven (? - 1731)")</t>
   </si>
 </sst>
 </file>
@@ -526,15 +622,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4209D71-387F-F445-89F0-0126DB7BEB91}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,29 +676,32 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1620</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="str">
-        <f>MID(LEFT(A2, FIND(")", A2)-1),FIND("(", A2)+1, LEN(A2))</f>
-        <v>1587 - 1658</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C10" si="0">LEFT(B2, SEARCH(" - ", B2, 1) - 1)</f>
-        <v>1587</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D10" si="1">RIGHT(B2, SEARCH(" - ", B2, 1) - 1)</f>
-        <v>1658</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -610,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -619,36 +721,39 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="str">
-        <f>MID(LEFT(A3, FIND(")", A3)-1),FIND("(", A3)+1, LEN(A3))</f>
-        <v>1624 - 1696</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>1624</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>1696</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -657,42 +762,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="str">
-        <f>MID(LEFT(A4, FIND(")", A4)-1),FIND("(", A4)+1, LEN(A4))</f>
-        <v>1581 - 1632</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>1581</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>1632</v>
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -707,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -716,30 +824,33 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="str">
-        <f>MID(LEFT(A5, FIND(")", A5)-1),FIND("(", A5)+1, LEN(A5))</f>
-        <v>1637 - 1706</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>1637</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>1706</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -763,29 +874,33 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>1530</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>1583</v>
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -809,178 +924,192 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="str">
-        <f>MID(LEFT(A7, FIND(")", A7)-1),FIND("(", A7)+1, LEN(A7))</f>
-        <v>1516 - 1591</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>1516</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>1591</v>
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
       </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>8</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>1553</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>1626</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="str">
-        <f>MID(LEFT(A9, FIND(")", A9)-1),FIND("(", A9)+1, LEN(A9))</f>
-        <v>1556 - 1626</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>1556</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>1626</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>1583</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>1666</v>
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -995,7 +1124,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1138,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{68373218-06B3-6544-AE17-5A8849E95C3B}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E51483C4-9CB5-E440-955B-4EE05C3B1BF1}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{78841654-FDDB-1D43-9B47-DB59E8938062}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{0CEF96F8-7B11-3240-A0BE-7C78118D4C31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
